--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D578162-2BF6-534F-9BD6-065587A7181A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881BB1BA-E880-B34C-ABFB-17B29CF29FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9220" yWindow="10060" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
@@ -59,10 +59,10 @@
     <t>https://juraforum.b-cdn.net/img/lx/33803-280x210_8932</t>
   </si>
   <si>
-    <t>Pensumreduktion auf 80 %</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ich habe heute mein Pensum für das nächste Jahr auf 80 % reduziert. Statt noch bis zur Geburt unseres Kindes 100 % zu arbeiten und erst nach dem Mutterschaftsurlaub von Celina zu reduzieren, mache ich dies bereits ab Anfang Jahr, um mir persönlich mehr Zeit zu geben. Zwar werde ich rund 90 % zu Beginn arbeiten, um mir den Oktober und November mit 30 % zu ermöglichen. Ich finde es aber im Ansatz schon mutig 😄</t>
+  </si>
+  <si>
+    <t>Pensumreduktion 80 %</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -476,10 +476,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881BB1BA-E880-B34C-ABFB-17B29CF29FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE4C19B-1B60-5E48-99BA-D74DCA5A3BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="10060" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
+    <workbookView xWindow="7120" yWindow="4860" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>day</t>
   </si>
@@ -59,10 +59,19 @@
     <t>https://juraforum.b-cdn.net/img/lx/33803-280x210_8932</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ich habe heute mein Pensum für das nächste Jahr auf 80 % reduziert. Statt noch bis zur Geburt unseres Kindes 100 % zu arbeiten und erst nach dem Mutterschaftsurlaub von Celina zu reduzieren, mache ich dies bereits ab Anfang Jahr, um mir persönlich mehr Zeit zu geben. Zwar werde ich rund 90 % zu Beginn arbeiten, um mir den Oktober und November mit 30 % zu ermöglichen. Ich finde es aber im Ansatz schon mutig 😄</t>
-  </si>
-  <si>
     <t>Pensumreduktion 80 %</t>
+  </si>
+  <si>
+    <t>https://www.kneipp.com/dw/image/v2/BGQM_PRD/on/demandware.static/-/Sites-master-catalog/de_CH/dw5650ffd1/918957_front.png?sw=500&amp;sh=600&amp;sm=fit&amp;sfrm=png</t>
+  </si>
+  <si>
+    <t>Adventskalender gestaltet</t>
+  </si>
+  <si>
+    <t>Mithilfe von KI habe ich diesen Adventskalender gestaltet. Ich habe einen Impuls / eine Idee umgesetzt und nicht auf halber Strecke aufgehört.</t>
+  </si>
+  <si>
+    <t>Ich habe gestern mein Pensum für das nächste Jahr auf 80 % reduziert. Statt noch bis zur Geburt unseres Kindes 100 % zu arbeiten und erst nach dem Mutterschaftsurlaub von Celina zu reduzieren, mache ich dies bereits ab Anfang Jahr, um mir persönlich mehr Zeit zu geben. Zwar werde ich rund 90 % zu Beginn arbeiten, um mir den Oktober und November mit 30 % zu ermöglichen. Ich finde es aber im Ansatz schon mutig 😄</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -476,22 +485,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
@@ -605,7 +626,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{D331A808-BA3B-8941-BDF5-ED5E26A0742E}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{ABCAD4D3-2536-B648-BB0C-BA8410ADA348}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE4C19B-1B60-5E48-99BA-D74DCA5A3BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2948C5BF-2F03-5043-A16B-19DE7B61A3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="4860" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
+    <workbookView xWindow="5280" yWindow="4840" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>day</t>
   </si>
@@ -53,9 +53,6 @@
     <t>image_url</t>
   </si>
   <si>
-    <t>Silvio</t>
-  </si>
-  <si>
     <t>https://juraforum.b-cdn.net/img/lx/33803-280x210_8932</t>
   </si>
   <si>
@@ -72,6 +69,21 @@
   </si>
   <si>
     <t>Ich habe gestern mein Pensum für das nächste Jahr auf 80 % reduziert. Statt noch bis zur Geburt unseres Kindes 100 % zu arbeiten und erst nach dem Mutterschaftsurlaub von Celina zu reduzieren, mache ich dies bereits ab Anfang Jahr, um mir persönlich mehr Zeit zu geben. Zwar werde ich rund 90 % zu Beginn arbeiten, um mir den Oktober und November mit 30 % zu ermöglichen. Ich finde es aber im Ansatz schon mutig 😄</t>
+  </si>
+  <si>
+    <t>Eisbaden in der Sitter</t>
+  </si>
+  <si>
+    <t>Gestern bin ich an den Ort, an dem ich meinen Lebensbogen verbrannt habe, Eisbaden gegangen. Ich mag eigentlich kaltes Wasser überhaupt nicht, hat also definitiv Mut gebraucht 😄</t>
+  </si>
+  <si>
+    <t>something New</t>
+  </si>
+  <si>
+    <t>Mut</t>
+  </si>
+  <si>
+    <t>https://d2exd72xrrp1s7.cloudfront.net/www/1e/1eq9jfstgx4d01okpw2wvj32454eh2hv3a-p307462067-full/184e8018e3b?width=2880&amp;crop=false&amp;q=70</t>
   </si>
 </sst>
 </file>
@@ -455,7 +467,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -485,16 +497,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -502,22 +514,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
@@ -627,6 +651,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{ABCAD4D3-2536-B648-BB0C-BA8410ADA348}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{4BF0943C-006B-D34D-8E84-F939BC72B82B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2948C5BF-2F03-5043-A16B-19DE7B61A3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C8FC33-53A4-6B45-BA70-E9F5F6D0F8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="4840" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -652,6 +652,7 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{ABCAD4D3-2536-B648-BB0C-BA8410ADA348}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{4BF0943C-006B-D34D-8E84-F939BC72B82B}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{06625D1A-A4A9-4F40-9F9F-1954705D6544}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C8FC33-53A4-6B45-BA70-E9F5F6D0F8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17650094-6C71-D348-9D20-42FF7F2E3990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="4840" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
@@ -53,15 +53,9 @@
     <t>image_url</t>
   </si>
   <si>
-    <t>https://juraforum.b-cdn.net/img/lx/33803-280x210_8932</t>
-  </si>
-  <si>
     <t>Pensumreduktion 80 %</t>
   </si>
   <si>
-    <t>https://www.kneipp.com/dw/image/v2/BGQM_PRD/on/demandware.static/-/Sites-master-catalog/de_CH/dw5650ffd1/918957_front.png?sw=500&amp;sh=600&amp;sm=fit&amp;sfrm=png</t>
-  </si>
-  <si>
     <t>Adventskalender gestaltet</t>
   </si>
   <si>
@@ -83,7 +77,13 @@
     <t>Mut</t>
   </si>
   <si>
-    <t>https://d2exd72xrrp1s7.cloudfront.net/www/1e/1eq9jfstgx4d01okpw2wvj32454eh2hv3a-p307462067-full/184e8018e3b?width=2880&amp;crop=false&amp;q=70</t>
+    <t>tag1.jpg</t>
+  </si>
+  <si>
+    <t>tag2.jpg</t>
+  </si>
+  <si>
+    <t>tag3.jpg</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -497,16 +497,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -514,16 +514,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -531,13 +531,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -650,9 +650,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{ABCAD4D3-2536-B648-BB0C-BA8410ADA348}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{4BF0943C-006B-D34D-8E84-F939BC72B82B}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{06625D1A-A4A9-4F40-9F9F-1954705D6544}"/>
+    <hyperlink ref="E3" r:id="rId1" display="https://juraforum.b-cdn.net/img/lx/33803-280x210_8932" xr:uid="{ABCAD4D3-2536-B648-BB0C-BA8410ADA348}"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://d2exd72xrrp1s7.cloudfront.net/www/1e/1eq9jfstgx4d01okpw2wvj32454eh2hv3a-p307462067-full/184e8018e3b?width=2880&amp;crop=false&amp;q=70" xr:uid="{4BF0943C-006B-D34D-8E84-F939BC72B82B}"/>
+    <hyperlink ref="E2" r:id="rId3" display="https://www.kneipp.com/dw/image/v2/BGQM_PRD/on/demandware.static/-/Sites-master-catalog/de_CH/dw5650ffd1/918957_front.png?sw=500&amp;sh=600&amp;sm=fit&amp;sfrm=png" xr:uid="{06625D1A-A4A9-4F40-9F9F-1954705D6544}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17650094-6C71-D348-9D20-42FF7F2E3990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6873AF-B661-824D-ABE0-3BBA1B2E34FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="4840" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
@@ -53,9 +53,15 @@
     <t>image_url</t>
   </si>
   <si>
+    <t>https://juraforum.b-cdn.net/img/lx/33803-280x210_8932</t>
+  </si>
+  <si>
     <t>Pensumreduktion 80 %</t>
   </si>
   <si>
+    <t>https://www.kneipp.com/dw/image/v2/BGQM_PRD/on/demandware.static/-/Sites-master-catalog/de_CH/dw5650ffd1/918957_front.png?sw=500&amp;sh=600&amp;sm=fit&amp;sfrm=png</t>
+  </si>
+  <si>
     <t>Adventskalender gestaltet</t>
   </si>
   <si>
@@ -77,13 +83,7 @@
     <t>Mut</t>
   </si>
   <si>
-    <t>tag1.jpg</t>
-  </si>
-  <si>
-    <t>tag2.jpg</t>
-  </si>
-  <si>
-    <t>tag3.jpg</t>
+    <t>https://d2exd72xrrp1s7.cloudfront.net/www/1e/1eq9jfstgx4d01okpw2wvj32454eh2hv3a-p307462067-full/184e8018e3b?width=2880&amp;crop=false&amp;q=70</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -497,16 +497,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -514,16 +514,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -531,13 +531,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -650,9 +650,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://juraforum.b-cdn.net/img/lx/33803-280x210_8932" xr:uid="{ABCAD4D3-2536-B648-BB0C-BA8410ADA348}"/>
-    <hyperlink ref="E4" r:id="rId2" display="https://d2exd72xrrp1s7.cloudfront.net/www/1e/1eq9jfstgx4d01okpw2wvj32454eh2hv3a-p307462067-full/184e8018e3b?width=2880&amp;crop=false&amp;q=70" xr:uid="{4BF0943C-006B-D34D-8E84-F939BC72B82B}"/>
-    <hyperlink ref="E2" r:id="rId3" display="https://www.kneipp.com/dw/image/v2/BGQM_PRD/on/demandware.static/-/Sites-master-catalog/de_CH/dw5650ffd1/918957_front.png?sw=500&amp;sh=600&amp;sm=fit&amp;sfrm=png" xr:uid="{06625D1A-A4A9-4F40-9F9F-1954705D6544}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{ABCAD4D3-2536-B648-BB0C-BA8410ADA348}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{4BF0943C-006B-D34D-8E84-F939BC72B82B}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{06625D1A-A4A9-4F40-9F9F-1954705D6544}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6873AF-B661-824D-ABE0-3BBA1B2E34FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10266EE4-144C-B34D-A88F-8FED54C1F6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="4840" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>day</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>https://d2exd72xrrp1s7.cloudfront.net/www/1e/1eq9jfstgx4d01okpw2wvj32454eh2hv3a-p307462067-full/184e8018e3b?width=2880&amp;crop=false&amp;q=70</t>
+  </si>
+  <si>
+    <t>Alleine an Dartsturnier</t>
+  </si>
+  <si>
+    <t>Ich habe mich gestern für ein Darts Turnier am Sonntag angemeldet, obwohl mein Bruder nicht kann. Somit gehe ich alleine und lerne neue Menschen kennen.</t>
+  </si>
+  <si>
+    <t>https://as1.ftcdn.net/v2/jpg/00/36/21/18/1000_F_36211854_RIs7qAGng1K4c5JvgxN3HxxMHbFtLMlc.jpg</t>
   </si>
 </sst>
 </file>
@@ -467,7 +476,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -547,6 +556,18 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10266EE4-144C-B34D-A88F-8FED54C1F6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E107CCE-3D8A-DC4D-AAE5-29711E80D9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="4840" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>day</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>https://as1.ftcdn.net/v2/jpg/00/36/21/18/1000_F_36211854_RIs7qAGng1K4c5JvgxN3HxxMHbFtLMlc.jpg</t>
+  </si>
+  <si>
+    <t>Mein Verhaltensziel: Adler</t>
+  </si>
+  <si>
+    <t>https://www.marco-lehmann.de/wp-content/uploads/adler-huhn-1200x675.jpg</t>
+  </si>
+  <si>
+    <t>WOW</t>
+  </si>
+  <si>
+    <t>Gestern spürte ich, dass es meinem Körper nicht so gut geht und bin deshalb kurz hingelegen. Und siehe da: Ich schloss die Augen und sah zum ersten Mal so richtig mein Verhaltensziel: der Adler fliegend über mir.</t>
   </si>
 </sst>
 </file>
@@ -476,7 +488,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -573,6 +585,18 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E107CCE-3D8A-DC4D-AAE5-29711E80D9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E91FC5-FE90-9045-8468-C5FB007EBDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="4840" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>https://as1.ftcdn.net/v2/jpg/00/36/21/18/1000_F_36211854_RIs7qAGng1K4c5JvgxN3HxxMHbFtLMlc.jpg</t>
   </si>
   <si>
-    <t>Mein Verhaltensziel: Adler</t>
-  </si>
-  <si>
     <t>https://www.marco-lehmann.de/wp-content/uploads/adler-huhn-1200x675.jpg</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Gestern spürte ich, dass es meinem Körper nicht so gut geht und bin deshalb kurz hingelegen. Und siehe da: Ich schloss die Augen und sah zum ersten Mal so richtig mein Verhaltensziel: der Adler fliegend über mir.</t>
+  </si>
+  <si>
+    <t>Der Adler</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -586,16 +586,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E91FC5-FE90-9045-8468-C5FB007EBDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CD049C-0A22-AA4E-A2E8-94F91ED3EF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="4840" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>day</t>
   </si>
@@ -105,6 +105,16 @@
   </si>
   <si>
     <t>Der Adler</t>
+  </si>
+  <si>
+    <t>Ich war gestern leicht angeschlagen und habe mir deshalb rausgenommen, erst spät so gegen 10:30 Uhr ins Büro zu gehen. Ich habe diese Zeit einfach gebraucht, um im Tag anzukommen und um es überhaupt ins Büro zu schaffen. Das Gefühl von "ich muss doch" ist nicht aufgekommen, sondern ich habe es einfach gemacht. 
+Weiter kam die Frage auf, wie ich einen Call mit einem möglichen Geschäftspartner gefunden habe. Ich habe mich hier ehrlich geäussert und gesagt, dass ich mich eigentlich nicht als Programmierer sehe sprich diese Aufgabe für mich mittelfristig nichts ist. Da ich weiss, dass ich dafür vorgesehen bin, hat es schon etwas Überwindung gebraucht. Ich habe bei anderen Geschäften auch schon klar meine Meinung gesagt, dass wir diese Verträge aus meiner Sicht kündigen sollten, weil wir dieses Know-How gar nicht im Unternehmen haben. Er wollte das nicht und jetzt muss ein Arbeitskollege diese Aufträge wahrnehmen, obwohl ihm die Skills dazu eigentlich auch fehlen. Es geht einfach nur darum, Aufträge die Geld geben, nicht zu verlieren statt sich auf das zu fokussieren, was wir können und wollen. Ich bleibe hier mutig und äussere meine Meinung, auch wenn ich damit nicht immer auf Freude stosse. Ich bleibe mir treu.</t>
+  </si>
+  <si>
+    <t>https://previews.123rf.com/images/rashadashurov/rashadashurov1910/rashadashurov191003965/131279365-honesty-icon-simple-element-illustration-honesty-concept-symbol-design-can-be-used-for-web.avif</t>
+  </si>
+  <si>
+    <t>Ehrlichkeit</t>
   </si>
 </sst>
 </file>
@@ -487,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9272D4A-D40F-6C49-834C-694886A0E2F1}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -602,6 +612,18 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CD049C-0A22-AA4E-A2E8-94F91ED3EF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D41CAFD-7DBD-4E4E-B4B9-291211FBC85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="4840" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>day</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Ehrlichkeit</t>
+  </si>
+  <si>
+    <t>Ich zeige mich.</t>
+  </si>
+  <si>
+    <t>Ich habe Tanja's Aufruf im PM-Call vom 27.11 umgesetzt und aufgeschrieben, was ich erreicht habe und auf die Frage "Wie will ich es haben?" habe ich auch alles usäprätscht wie von Tanja gefordert. Heute zeige ich mich damit in der Gruppe. Sich so zu zeigen, löst bei mir die Frage aus, wen könnte das wirklich interessieren und ob ich mit dem erreichten jetzt bluffig rüberkomme. Das sind die Gefühle, die ich damit habe. Aber ich mache es jetzt trotzdem.</t>
+  </si>
+  <si>
+    <t>https://ih1.redbubble.net/image.4999092252.0596/raf,360x360,075,t,fafafa:ca443f4786.jpg</t>
   </si>
 </sst>
 </file>
@@ -498,7 +507,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -613,16 +622,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -670,48 +679,60 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:5">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
         <v>24</v>
       </c>
     </row>

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D41CAFD-7DBD-4E4E-B4B9-291211FBC85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FB7596-7AFD-834C-81D7-81053AE7ABCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5280" yWindow="4840" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>day</t>
   </si>
@@ -124,6 +124,16 @@
   </si>
   <si>
     <t>https://ih1.redbubble.net/image.4999092252.0596/raf,360x360,075,t,fafafa:ca443f4786.jpg</t>
+  </si>
+  <si>
+    <t>Fokus und Peak Performance</t>
+  </si>
+  <si>
+    <t>Am Sonntag war es soweit: Ich ging alleine ans Dartturnier und konnte 5 der 7 Vorrundenspiele gewinnen! Fokus auf die Atmung, im Hier und Jetzt sein - nicht bei den Pfeilen vorher und denen die Folgen, Störungen (und das gab es dort viele: Lärm, Bewegung, Personen, die im Weg sind usw.) ausblenden. Das hat recht gut geklappt. Es gab nur eine Niederlage gegen einen gleich guten Gegner. Der andere war klar besser, ich konnte aber trotzdem recht gut mithalten. Im Achtelfinale war dann aber Schluss. Mein Gegner spielte in einer anderen Liga. So konnte ich mich auch gleich als fairen Verlierer üben - was bei mir früher nicht immer der Fall war leider. Insgesamt ein erfolgreicher Tag mit spannenden Gesprächen, neuen Kontakten und dem Mut, sich auch alleine irgendwo zu zeigen. 
+Es folgte eine echt mühsame Nacht, aber naja, das soll mein Highlighttag nicht trüben.</t>
+  </si>
+  <si>
+    <t>https://cortina.dolomiti.org/wp-content/uploads/2024/07/744b26bededd52972e713467266d38ec.jpg</t>
   </si>
 </sst>
 </file>
@@ -507,7 +517,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -638,6 +648,18 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FB7596-7AFD-834C-81D7-81053AE7ABCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3153E180-2540-7340-868E-4B481A680732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="4840" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
+    <workbookView xWindow="200" yWindow="4840" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>day</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>https://cortina.dolomiti.org/wp-content/uploads/2024/07/744b26bededd52972e713467266d38ec.jpg</t>
+  </si>
+  <si>
+    <t>https://www.visualstatements.net/wp-content/uploads/2023/02/Spruch3-Von-nun-an-egal-was-andere-denken.png</t>
+  </si>
+  <si>
+    <t>Ist egal was andere denken</t>
+  </si>
+  <si>
+    <t>Heute habe ich mich mit Corina Brüngger in St.Gallen getroffen und wir haben uns über unsere Visionen unterhalten und gechallenged. Es war so ein schöner Austausch und wir beide konnten uns gegenseitig weiterhelfen. Wir haben uns mega offen unterhalten und es war uns egal, was die rundherum gedacht haben. Ich hatte das Gefühl, dass einige uns beobachtet und zugehört haben, aber es war mir egal. Es gab auch schon Zeiten, da wäre mir das etwas unangenehm gewesen. Was würden wohl die anderen denken? Gottseidank ist das ab jetzt anders.</t>
   </si>
 </sst>
 </file>
@@ -517,7 +526,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -665,6 +674,18 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3153E180-2540-7340-868E-4B481A680732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B4CDA2-78C5-454C-98B3-17DA3CB92E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="4840" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>day</t>
   </si>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>Heute habe ich mich mit Corina Brüngger in St.Gallen getroffen und wir haben uns über unsere Visionen unterhalten und gechallenged. Es war so ein schöner Austausch und wir beide konnten uns gegenseitig weiterhelfen. Wir haben uns mega offen unterhalten und es war uns egal, was die rundherum gedacht haben. Ich hatte das Gefühl, dass einige uns beobachtet und zugehört haben, aber es war mir egal. Es gab auch schon Zeiten, da wäre mir das etwas unangenehm gewesen. Was würden wohl die anderen denken? Gottseidank ist das ab jetzt anders.</t>
+  </si>
+  <si>
+    <t>https://cdn.humanresourcesmanager.de/app/uploads/2019/09/achtsamkeit-am-arbeitsplatz.jpg</t>
+  </si>
+  <si>
+    <t>Auf meinen Körper hören</t>
+  </si>
+  <si>
+    <t>kein falscher Stolz</t>
+  </si>
+  <si>
+    <t>Ich hatte heute Nachmittag so stark Kopfschmerzen, dass ich mich auf nichts mehr konzentrieren konnte. Anstatt mich durch den Nachmittag zu mogeln und schlussendlich bei der Arbeit doch nichts wirklich anzugehen, habe ich mich am Nachmittag krank abgemeldet. Es kam falscher Stolz mit, weil ich schon mehr als ein Jahr lang keine Stunde mehr krank gefehlt habe. Habe es dann trotzdem gemacht und auf meinen Körper gehört.</t>
   </si>
 </sst>
 </file>
@@ -526,7 +538,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -691,6 +703,18 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B4CDA2-78C5-454C-98B3-17DA3CB92E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C2AB32-7F0D-1143-A97B-7B83E333C779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="4840" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
+    <workbookView xWindow="40220" yWindow="720" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>day</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>Ich hatte heute Nachmittag so stark Kopfschmerzen, dass ich mich auf nichts mehr konzentrieren konnte. Anstatt mich durch den Nachmittag zu mogeln und schlussendlich bei der Arbeit doch nichts wirklich anzugehen, habe ich mich am Nachmittag krank abgemeldet. Es kam falscher Stolz mit, weil ich schon mehr als ein Jahr lang keine Stunde mehr krank gefehlt habe. Habe es dann trotzdem gemacht und auf meinen Körper gehört.</t>
+  </si>
+  <si>
+    <t>Schneid, was du Lust hast.</t>
+  </si>
+  <si>
+    <t>Ich habe meiner Coiffeuse erlaubt, das zu schneiden, was sie Lust hat und sie findet, würde noch passen. Sie hat dann letztlich nicht wirklich variiert, sondern nur was kleines verändert. Meine Frau war abends erstaunt, als ich es ihr erzählt habe. So etwas hätte ich früher nie gemacht. Und ja, stimmt maximal - das hätte ich früher definitiv nicht gemacht.</t>
+  </si>
+  <si>
+    <t>https://www.biblond.com/wp-content/uploads/2014/11/biblond_web_magazine_coiffure_pro_tendance-coiffure_style-hipster_cyril-hohl-3-800x600.jpg</t>
   </si>
 </sst>
 </file>
@@ -538,7 +547,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -720,6 +729,18 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C2AB32-7F0D-1143-A97B-7B83E333C779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5F44E8-2068-834A-B5B7-62992467A49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40220" yWindow="720" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
+    <workbookView xWindow="54080" yWindow="1680" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>day</t>
   </si>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>https://www.biblond.com/wp-content/uploads/2014/11/biblond_web_magazine_coiffure_pro_tendance-coiffure_style-hipster_cyril-hohl-3-800x600.jpg</t>
+  </si>
+  <si>
+    <t>Endlich bin ich wieder Joggen gegangen. Ich habe mir mitten im Nachmittag die Zeit genommen, eine kurze Runde nach draussen zu gehen. Die Aktivierungsphase hat somit wieder gestartet. 😀 Zudem habe ich abends am 10.11 im Internet nach Kochkursen geschaut, die ich buchen könnte, um alleine hinzugehen. Ich möchte schon lange einen Kurs machen, bei dem ich Grundkochskills erlerne. Schlaue Kurse habe ich noch nie wirklich gefunden - bis dahin. Jetzt habe ich mir einen Zugang zur Onlineplattform 7Hauben gekauft. Hier kann ich eben diese Skills erlernen, aber auch spannende Kurse zu gewissen Themen dann machen, wenn es mir geht. Und hier habe ich auch ein Kurs zum Thema "fermentierte Getränke" gefunden. Das ist schon lange ein Wunsch von mir, da mich dies mega interessiert und ich die alkoholfreie Getränkebegleitung als sehr reizvolle Aufgabe wahrnehme. In diesem Sinne schauen wir mal, was ich Neues lernen darf.</t>
+  </si>
+  <si>
+    <t>Aktivierung und Neues lernen</t>
+  </si>
+  <si>
+    <t>https://d2z9jv66wc4wox.cloudfront.net/eyJidWNrZXQiOiI3aC1zdHJhcGkiLCJrZXkiOiI3aGF1YmVuX3Bhc3NfZ3V0c2NoZWluX2RjZDc0OTA3MDMuanBlZyIsImVkaXRzIjp7InJlc2l6ZSI6eyJ3aWR0aCI6NzAwLCJoZWlnaHQiOm51bGwsImZpdCI6ImNvdmVyIn19fQ==</t>
+  </si>
+  <si>
+    <t>Körperliche Aktivierung &amp; Neues lernen</t>
   </si>
 </sst>
 </file>
@@ -547,7 +559,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -746,6 +758,18 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5F44E8-2068-834A-B5B7-62992467A49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1894A8C6-248C-7144-A10D-30FAC64074A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="54080" yWindow="1680" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
@@ -172,10 +172,10 @@
     <t>Aktivierung und Neues lernen</t>
   </si>
   <si>
-    <t>https://d2z9jv66wc4wox.cloudfront.net/eyJidWNrZXQiOiI3aC1zdHJhcGkiLCJrZXkiOiI3aGF1YmVuX3Bhc3NfZ3V0c2NoZWluX2RjZDc0OTA3MDMuanBlZyIsImVkaXRzIjp7InJlc2l6ZSI6eyJ3aWR0aCI6NzAwLCJoZWlnaHQiOm51bGwsImZpdCI6ImNvdmVyIn19fQ==</t>
-  </si>
-  <si>
     <t>Körperliche Aktivierung &amp; Neues lernen</t>
+  </si>
+  <si>
+    <t>https://www.faz.net/kaufkompass/wp-content/uploads/2023/11/joggen-bei-kalte-aufmacher-1822x1025.jpg</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
@@ -768,7 +768,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1894A8C6-248C-7144-A10D-30FAC64074A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59680BF3-8DF7-8147-B2B1-2FAB6B2336AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54080" yWindow="1680" windowWidth="27440" windowHeight="16240" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>day</t>
   </si>
@@ -176,6 +176,18 @@
   </si>
   <si>
     <t>https://www.faz.net/kaufkompass/wp-content/uploads/2023/11/joggen-bei-kalte-aufmacher-1822x1025.jpg</t>
+  </si>
+  <si>
+    <t>Entspanntes Jahresgespräch</t>
+  </si>
+  <si>
+    <t>https://cdntest.apozin.de/mimg/archive/large/adobestock_284485921_entspannung.jpg</t>
+  </si>
+  <si>
+    <t>Bei mir sein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich hatte mein Jahresgespräch mit meinem Vorgesetzen. Ich war maximal entspannt. In den Jahren zuvor hatte ich immer das Gefühl, ich müsse die Veränderung anstossen bzw. kritisieren. Ich erhoffte mir dann, dass meine Vorstellung durchkommt und dadurch kam ich ins emotionale Ungleichgewicht. Diesmal konnte ich meine Energie bei mir halten und war auch sachlich und entspannt bei der Lohndiskussion. </t>
   </si>
 </sst>
 </file>
@@ -559,7 +571,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -775,6 +787,18 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59680BF3-8DF7-8147-B2B1-2FAB6B2336AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FCA921-4606-214D-A618-8E37C71C0894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
+    <workbookView xWindow="29700" yWindow="3940" windowWidth="34560" windowHeight="21600" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>day</t>
   </si>
@@ -188,6 +188,30 @@
   </si>
   <si>
     <t xml:space="preserve">Ich hatte mein Jahresgespräch mit meinem Vorgesetzen. Ich war maximal entspannt. In den Jahren zuvor hatte ich immer das Gefühl, ich müsse die Veränderung anstossen bzw. kritisieren. Ich erhoffte mir dann, dass meine Vorstellung durchkommt und dadurch kam ich ins emotionale Ungleichgewicht. Diesmal konnte ich meine Energie bei mir halten und war auch sachlich und entspannt bei der Lohndiskussion. </t>
+  </si>
+  <si>
+    <t>LS vor dem Schlafen</t>
+  </si>
+  <si>
+    <t>In den letzten Wochen waren meine Nächte vom Sonntag auf den Montag nicht sehr gut - konnte nicht gut einschlafen. Diesmal habe ich vor dem Schlafen LS gemacht mit den Eindrücken vom Tag und mit den nervösen Gefühlen, die ich hatte. Ich konnte nachher rasch einschlafen.</t>
+  </si>
+  <si>
+    <t>LS anwenden</t>
+  </si>
+  <si>
+    <t>https://greator.com/wp-content/uploads/2021/05/selbstcoaching-step-by-step-as-206759352-1024x683.jpeg</t>
+  </si>
+  <si>
+    <t>Genussvoller, entspannter Tag</t>
+  </si>
+  <si>
+    <t>Am Samstag haben wir einen Geburtstag gefeiert mit einem Brunch und waren danach noch Abendessen mit Freunden. Es war ein entspannter Tag, den ich richtig geniessen konnte. Es gab 2, 3 Mal Momente, in denen ich wieder etwas weniger entspannt war. Ich konnte mich aber gut abgrenzen und die Energie, die nicht zu mir gehört, habe ich auch nicht angenommen.</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/kardashev/images/0/0f/Energy.jpg/revision/latest/scale-to-width-down/1000?cb=20210905164631</t>
+  </si>
+  <si>
+    <t>Abgrenzung</t>
   </si>
 </sst>
 </file>
@@ -571,7 +595,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -804,10 +828,34 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FCA921-4606-214D-A618-8E37C71C0894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDE6993-E99A-4546-AF0C-A61D3A204DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29700" yWindow="3940" windowWidth="34560" windowHeight="21600" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>day</t>
   </si>
@@ -212,6 +212,18 @@
   </si>
   <si>
     <t>Abgrenzung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich war nach der Arbeit wieder etwas gereizt. Ich habe LS gemacht und danach wollte ich noch weitermachen mit den Coachinginhalten bzw. meinem Zukunftsbild. Aber ich war einfach nicht in Stimmung dafür und habe mir dann bewusst eine Auszeit gegönnt und einfach Darts-WM geschaut - ohne schlechtes Gewissen. </t>
+  </si>
+  <si>
+    <t>Relax am Abend - nicht müssen</t>
+  </si>
+  <si>
+    <t>frei sein</t>
+  </si>
+  <si>
+    <t>https://www.dartn.de/wp-content/uploads/2025/12/Hintergrund_495-1200x800.jpg</t>
   </si>
 </sst>
 </file>
@@ -595,7 +607,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -862,6 +874,18 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDE6993-E99A-4546-AF0C-A61D3A204DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C3F7D1-1681-9C47-A841-20428D4461BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
+    <workbookView xWindow="18940" yWindow="8920" windowWidth="34560" windowHeight="20340" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>day</t>
   </si>
@@ -217,13 +217,28 @@
     <t xml:space="preserve">Ich war nach der Arbeit wieder etwas gereizt. Ich habe LS gemacht und danach wollte ich noch weitermachen mit den Coachinginhalten bzw. meinem Zukunftsbild. Aber ich war einfach nicht in Stimmung dafür und habe mir dann bewusst eine Auszeit gegönnt und einfach Darts-WM geschaut - ohne schlechtes Gewissen. </t>
   </si>
   <si>
-    <t>Relax am Abend - nicht müssen</t>
-  </si>
-  <si>
     <t>frei sein</t>
   </si>
   <si>
     <t>https://www.dartn.de/wp-content/uploads/2025/12/Hintergrund_495-1200x800.jpg</t>
+  </si>
+  <si>
+    <t>Relaxen am Abend - nicht müssen</t>
+  </si>
+  <si>
+    <t>Keine Idee</t>
+  </si>
+  <si>
+    <t>https://source.boomplaymusic.com/group10/M00/06/08/9b2ee4c30c40406b981a55ee89a00ad1_464_464.webp</t>
+  </si>
+  <si>
+    <t>genervt</t>
+  </si>
+  <si>
+    <t>Ich bin heute echt genervt, dass ich lange nichts mehr mutiges gemacht habe. Und irgendwie habe ich auch keine Idee, was ich Mutiges tun könnte. Bin genervt - und zeige das auch hier.</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/de/illustrations/emoji-gelb-gesicht-genervt-2737331/</t>
   </si>
 </sst>
 </file>
@@ -607,7 +622,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -875,26 +890,41 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>58</v>
       </c>
       <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
         <v>60</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C3F7D1-1681-9C47-A841-20428D4461BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A38B2A2-9B9F-1F49-B4BF-A4B103141D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18940" yWindow="8920" windowWidth="34560" windowHeight="20340" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
@@ -622,7 +622,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -916,20 +916,20 @@
         <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A38B2A2-9B9F-1F49-B4BF-A4B103141D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0C2A5A-13AC-E545-88AC-D78A127835D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18940" yWindow="8920" windowWidth="34560" windowHeight="20340" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>day</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>Ich bin heute echt genervt, dass ich lange nichts mehr mutiges gemacht habe. Und irgendwie habe ich auch keine Idee, was ich Mutiges tun könnte. Bin genervt - und zeige das auch hier.</t>
-  </si>
-  <si>
-    <t>https://pixabay.com/de/illustrations/emoji-gelb-gesicht-genervt-2737331/</t>
   </si>
 </sst>
 </file>
@@ -622,7 +619,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -916,7 +913,7 @@
         <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -927,9 +924,6 @@
     <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0C2A5A-13AC-E545-88AC-D78A127835D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C26F763-B673-3A4C-8BF8-6ADBCC20C5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18940" yWindow="8920" windowWidth="34560" windowHeight="20340" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>day</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Am Samstag haben wir einen Geburtstag gefeiert mit einem Brunch und waren danach noch Abendessen mit Freunden. Es war ein entspannter Tag, den ich richtig geniessen konnte. Es gab 2, 3 Mal Momente, in denen ich wieder etwas weniger entspannt war. Ich konnte mich aber gut abgrenzen und die Energie, die nicht zu mir gehört, habe ich auch nicht angenommen.</t>
   </si>
   <si>
-    <t>https://static.wikia.nocookie.net/kardashev/images/0/0f/Energy.jpg/revision/latest/scale-to-width-down/1000?cb=20210905164631</t>
-  </si>
-  <si>
     <t>Abgrenzung</t>
   </si>
   <si>
@@ -236,6 +233,18 @@
   </si>
   <si>
     <t>Ich bin heute echt genervt, dass ich lange nichts mehr mutiges gemacht habe. Und irgendwie habe ich auch keine Idee, was ich Mutiges tun könnte. Bin genervt - und zeige das auch hier.</t>
+  </si>
+  <si>
+    <t>https://healthfullness.ch/wp-content/uploads/2024/12/Energiekoerper.jpg</t>
+  </si>
+  <si>
+    <t>Verhandlung</t>
+  </si>
+  <si>
+    <t>https://image.capital.de/31035194/t/7o/v1/w1440/r0/-/verhandlungen-agreement-3489902-1920-jpg.jpg</t>
+  </si>
+  <si>
+    <t>Ich verspürte eine Unzufriedenheit bezüglich unseres Jahresgespräches vom letzten Freitag. Es gab Punkte, die noch angesprochen werden mussten. So habe ich gestern den Mut zusammen genommen und das Thema bei meinem Chef platziert anstatt es in mich reinzufressen. Das hat gut getan und es fühlte sich nacher deutlich besser an.</t>
   </si>
 </sst>
 </file>
@@ -619,7 +628,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -859,10 +868,10 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
         <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -887,16 +896,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -904,21 +913,33 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
         <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C26F763-B673-3A4C-8BF8-6ADBCC20C5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D471F1BE-1644-A24F-8C3C-CA0A29F53A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>day</t>
   </si>
@@ -245,6 +245,36 @@
   </si>
   <si>
     <t>Ich verspürte eine Unzufriedenheit bezüglich unseres Jahresgespräches vom letzten Freitag. Es gab Punkte, die noch angesprochen werden mussten. So habe ich gestern den Mut zusammen genommen und das Thema bei meinem Chef platziert anstatt es in mich reinzufressen. Das hat gut getan und es fühlte sich nacher deutlich besser an.</t>
+  </si>
+  <si>
+    <t>Weihnachtsessen</t>
+  </si>
+  <si>
+    <t>https://www.berlin-erlebnisse.de/wp-content/uploads/2018/03/Fotolia_74890468_Subscription_Monthly_M-%C2%A9-Monkey-Business-Fotolia.com_-600x400.jpg</t>
+  </si>
+  <si>
+    <t>Am Freitag hatten wir unser Weihnachtessen mit Partnerinnen. Es war ein lockerer Abend mit lustigen Momenten und Gesprächen und ich konnte es geniessen. Auf dem Nachhauseweg bekam ich das Feedback, dass ich teilweise bei Witzen vom Arbeitskollegen über den Chef zu fest mitgelacht habe und es vielleicht auch fies rüberkommen könnte. Das war ein so wichtiges Feedback, denn in dieses Muster möchte ich nicht zurück und das gehört auch nicht zu mir. Ich habe mich auch etwas geschämt dafür und mit dieser Scham habe ich dann LS gemacht. Es hat gut getan. Und he, ich sehe auf einmal und immer mehr Dinge bei der LS.</t>
+  </si>
+  <si>
+    <t>https://swisspadel.ch/wp-content/uploads/2024/07/DSC01134-1.jpg</t>
+  </si>
+  <si>
+    <t>Mutiger Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beim Padel spielen war ich mutig. Ich weiss, dass ich einen sehr guten Service habe. Er ist vor allem dann gut, wenn ich mutig und intuitiv spiele. Ich habe voll durchgezogen und immer am Limit gespielt und wurde dafür mega belohnt. </t>
+  </si>
+  <si>
+    <t>Mut &amp; Dankbarkeit</t>
+  </si>
+  <si>
+    <t>Dankbar- &amp; Sichtbarkeit</t>
+  </si>
+  <si>
+    <t>https://media04.lokalkompass.de/article/2016/12/02/2/8845752_L.jpg?1564179252</t>
+  </si>
+  <si>
+    <t>Ich bin in einem Fussballfanklub mit 250 Mitglieder:innen und rund 190 im Whatsapp Chat. Für das Jubiläumsfest heute musste ich mich abmelden. Ich habe aber bewusst in den Chat ein kurzes Statement geschrieben, in dem ich mich für die wertvolle Arbeit &amp; Energie, die der Vorstand einbringt, im Namen der Mitglieder:innen bedankt habe. Zu oft wird solche Arbeit als selbstverständlich angeschaut, obwohl es das überhaupt nicht ist. Es erforderte Mut, diese Nachricht im Chat zu verschicken, aber es hat gut getan.</t>
   </si>
 </sst>
 </file>
@@ -628,7 +658,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -946,15 +976,51 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D471F1BE-1644-A24F-8C3C-CA0A29F53A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CFD9F0-285E-C24E-BA91-612806DACD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
+    <workbookView xWindow="18300" yWindow="2800" windowWidth="34560" windowHeight="21600" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>day</t>
   </si>
@@ -275,6 +275,18 @@
   </si>
   <si>
     <t>Ich bin in einem Fussballfanklub mit 250 Mitglieder:innen und rund 190 im Whatsapp Chat. Für das Jubiläumsfest heute musste ich mich abmelden. Ich habe aber bewusst in den Chat ein kurzes Statement geschrieben, in dem ich mich für die wertvolle Arbeit &amp; Energie, die der Vorstand einbringt, im Namen der Mitglieder:innen bedankt habe. Zu oft wird solche Arbeit als selbstverständlich angeschaut, obwohl es das überhaupt nicht ist. Es erforderte Mut, diese Nachricht im Chat zu verschicken, aber es hat gut getan.</t>
+  </si>
+  <si>
+    <t>Energiestaubsauger</t>
+  </si>
+  <si>
+    <t>Energie zentrieren</t>
+  </si>
+  <si>
+    <t>https://us.123rf.com/450wm/dxinerz/dxinerz1801/dxinerz180100321/92601781-yoga-aerobic-bewegung-fitness-sport-symbolbild-kann-auch-f%C3%BCr-fitness-erholung-verwendet-werden.jpg?ver=6</t>
+  </si>
+  <si>
+    <t>Am Sonntag war Padeltraining. Ich bin endlich wieder mal gegangen und spielte zuerst gleich mit jemanden, den ich gut kenne. Aktuell ist er leider sehr negativ eingestellt gegenüber allem und kommt gefühlt jedes Mal direkt von der Party und ist dementsprechend fit und munter beim Spielen. Ich habe mich über diese negative Energie aufgeregt. Früher habe ich mich oft reinziehen lassen. Dieses Mal habe ich mir danach bewusst eine Pause gegönnt und den Energiestaubsauger geübt, um mich bewusst abzugrenzen von diesen Energien und dass sie nicht zu meinen werden. Es hat geholfen, aber ich darf noch weiter üben. Und ich habe gemerkt, dass ich aktuell gerade Mühe habe mit dieser negativen Energe "alles ist scheisse". Davon darf ich mich noch etwas mehr abgrenzen.</t>
   </si>
 </sst>
 </file>
@@ -658,7 +670,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1027,6 +1039,18 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">

--- a/advent_content.xlsx
+++ b/advent_content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Coaching_Frieden/Adventskalender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CFD9F0-285E-C24E-BA91-612806DACD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E275BC1B-9CBD-BB4E-9078-729A4807D259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18300" yWindow="2800" windowWidth="34560" windowHeight="21600" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20340" xr2:uid="{2626E1D2-89FA-8449-8FB2-648863FB9366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>day</t>
   </si>
@@ -105,16 +105,6 @@
   </si>
   <si>
     <t>Der Adler</t>
-  </si>
-  <si>
-    <t>Ich war gestern leicht angeschlagen und habe mir deshalb rausgenommen, erst spät so gegen 10:30 Uhr ins Büro zu gehen. Ich habe diese Zeit einfach gebraucht, um im Tag anzukommen und um es überhaupt ins Büro zu schaffen. Das Gefühl von "ich muss doch" ist nicht aufgekommen, sondern ich habe es einfach gemacht. 
-Weiter kam die Frage auf, wie ich einen Call mit einem möglichen Geschäftspartner gefunden habe. Ich habe mich hier ehrlich geäussert und gesagt, dass ich mich eigentlich nicht als Programmierer sehe sprich diese Aufgabe für mich mittelfristig nichts ist. Da ich weiss, dass ich dafür vorgesehen bin, hat es schon etwas Überwindung gebraucht. Ich habe bei anderen Geschäften auch schon klar meine Meinung gesagt, dass wir diese Verträge aus meiner Sicht kündigen sollten, weil wir dieses Know-How gar nicht im Unternehmen haben. Er wollte das nicht und jetzt muss ein Arbeitskollege diese Aufträge wahrnehmen, obwohl ihm die Skills dazu eigentlich auch fehlen. Es geht einfach nur darum, Aufträge die Geld geben, nicht zu verlieren statt sich auf das zu fokussieren, was wir können und wollen. Ich bleibe hier mutig und äussere meine Meinung, auch wenn ich damit nicht immer auf Freude stosse. Ich bleibe mir treu.</t>
-  </si>
-  <si>
-    <t>https://previews.123rf.com/images/rashadashurov/rashadashurov1910/rashadashurov191003965/131279365-honesty-icon-simple-element-illustration-honesty-concept-symbol-design-can-be-used-for-web.avif</t>
-  </si>
-  <si>
-    <t>Ehrlichkeit</t>
   </si>
   <si>
     <t>Ich zeige mich.</t>
@@ -287,6 +277,26 @@
   </si>
   <si>
     <t>Am Sonntag war Padeltraining. Ich bin endlich wieder mal gegangen und spielte zuerst gleich mit jemanden, den ich gut kenne. Aktuell ist er leider sehr negativ eingestellt gegenüber allem und kommt gefühlt jedes Mal direkt von der Party und ist dementsprechend fit und munter beim Spielen. Ich habe mich über diese negative Energie aufgeregt. Früher habe ich mich oft reinziehen lassen. Dieses Mal habe ich mir danach bewusst eine Pause gegönnt und den Energiestaubsauger geübt, um mich bewusst abzugrenzen von diesen Energien und dass sie nicht zu meinen werden. Es hat geholfen, aber ich darf noch weiter üben. Und ich habe gemerkt, dass ich aktuell gerade Mühe habe mit dieser negativen Energe "alles ist scheisse". Davon darf ich mich noch etwas mehr abgrenzen.</t>
+  </si>
+  <si>
+    <t>Ideen einbringen</t>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/id/1451866244/photo/innovation-through-ideas-and-inspiration-ideas-human-hand-holding-light-bulb-to-illuminate.jpg?s=612x612&amp;w=0&amp;k=20&amp;c=nJc5mLdUw3-PunBV7JDoiXp_fwOohlQsHEIIYqG7Urc=</t>
+  </si>
+  <si>
+    <t>Ich hatte nach dem Weihnachtsessen die Idee, wir könnten im Büro mal richtig ausmisten, um das 2026 unbeschwert zu starten. Aus diesem Grund habe ich dies am Montag eingebracht. Es ist nicht wirklich auf offene Ohren gestossen - es sei doch schon so aufgeräumt bei uns :-D Naja, ich konnte es mit einem Lächeln nehmen - es ist ja nicht mein Büro. Ich habe einfach meinen Pult und meine Sachen ausgemistet und bin jetzt noch dran, "das digitale" - sprich unsere Teams- und SharePoint-Umgebung - aufzuräumen, so gut es geht. Der Rest geht mich nichts mehr an.
+Zudem habe ich vor einigen Wochen schon angemerkt, dass unsere PK nicht so gut ist und er langfristig mit einer besseren PK einen grossen Impact erzielen könnte. Und siehe da, wir haben es am Montag nochmals diskutiert und eine Verbesserung der Leistungen beschlossen.</t>
+  </si>
+  <si>
+    <t>https://exlibris.azureedge.net/covers/9783/9858/5190/4/9783985851904xxl.webp</t>
+  </si>
+  <si>
+    <t>Folge deinen Träumen</t>
+  </si>
+  <si>
+    <t>Per Post habe ich ein Buch erhalten: "Folge deinen Träumen" 
+Ich habe direkt meine Mutter verdächtigt und ihr geschrieben. Sie wusste nichts davon. Schwupps hatte ich ein Aha-Moment und war mir sicher, dies von der Schwester erhalten zu haben. Ich hörte selten von ihr. Beim letzten Mal an ihrem Geburtstag hatten wir es von unseren Visionen und sie war so klar in ihren Worten und Vorstellungen - ich war maximal inspiriert. Ich wusste, dass sie in spannenden (Veränderungs-)Prozessen ist und habe mich mega über das Buch gefreut. Heute habe ich ihr angerufen und mich bei ihr für das Buch bedankt. Wir hatten ein tolles Gespräch und ich habe ihr erzählt, was ich aktuell im Rahmen des Coachings mache. Es hat ihr auch geholfen und sie malt sich jetzt auch ihre Welt aus nach dem Prinzip "WENN ALLES MÖGLICH WÄRE, DANN..." --&gt; Ich freue mich, mich mit ihr bald wieder auszutauschen.</t>
   </si>
 </sst>
 </file>
@@ -669,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9272D4A-D40F-6C49-834C-694886A0E2F1}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="188" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -785,16 +795,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -802,16 +812,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -819,16 +829,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -836,16 +846,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -853,16 +863,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -870,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -887,16 +897,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -904,16 +914,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -921,16 +931,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -938,16 +948,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -955,16 +965,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -972,16 +982,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -989,16 +999,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1006,16 +1016,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1023,16 +1033,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1040,42 +1050,54 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" t="s">
         <v>24</v>
       </c>
     </row>
